--- a/safety_checkout/config.xlsx
+++ b/safety_checkout/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron_fankhauser\Documents\Python_Projects\excel_generator\safety_checkout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4CB02-9F9E-4DD7-80EF-F17361C1CFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13957AE8-BBCE-4631-BCB6-018AD6883BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="2475" windowWidth="21600" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,60 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>autozone</t>
-  </si>
-  <si>
-    <t>HMI1</t>
-  </si>
-  <si>
-    <t>SCB1</t>
-  </si>
-  <si>
-    <t>HMI2</t>
-  </si>
-  <si>
-    <t>SCB2</t>
-  </si>
-  <si>
-    <t>HMI3</t>
-  </si>
-  <si>
-    <t>HMI4</t>
-  </si>
-  <si>
-    <t>SCB3</t>
-  </si>
-  <si>
-    <t>SCB4</t>
-  </si>
-  <si>
-    <t>HMI5</t>
-  </si>
-  <si>
-    <t>HMI6</t>
-  </si>
-  <si>
-    <t>SCB5</t>
-  </si>
-  <si>
-    <t>SCB6</t>
-  </si>
-  <si>
-    <t>HMI7</t>
-  </si>
-  <si>
-    <t>HMI8</t>
-  </si>
-  <si>
-    <t>SCB7</t>
-  </si>
-  <si>
-    <t>HMI9</t>
-  </si>
-  <si>
-    <t>SCB8</t>
   </si>
   <si>
     <t>device3</t>
@@ -419,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,100 +381,44 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/safety_checkout/config.xlsx
+++ b/safety_checkout/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron_fankhauser\Documents\Python_Projects\excel_generator\safety_checkout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13957AE8-BBCE-4631-BCB6-018AD6883BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C6C64-6593-4C4D-9DF8-7EF6161667E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2475" windowWidth="21600" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="8925" windowWidth="21600" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>autozone</t>
   </si>
@@ -51,6 +51,51 @@
   </si>
   <si>
     <t>device5</t>
+  </si>
+  <si>
+    <t>HMI1</t>
+  </si>
+  <si>
+    <t>HMI3</t>
+  </si>
+  <si>
+    <t>HMI4</t>
+  </si>
+  <si>
+    <t>HMI2</t>
+  </si>
+  <si>
+    <t>HMI5</t>
+  </si>
+  <si>
+    <t>SCB1</t>
+  </si>
+  <si>
+    <t>SCB2</t>
+  </si>
+  <si>
+    <t>SCB4</t>
+  </si>
+  <si>
+    <t>SCB5</t>
+  </si>
+  <si>
+    <t>SCB6</t>
+  </si>
+  <si>
+    <t>HMI6</t>
+  </si>
+  <si>
+    <t>HMI7</t>
+  </si>
+  <si>
+    <t>HMI8</t>
+  </si>
+  <si>
+    <t>SCB3</t>
+  </si>
+  <si>
+    <t>SCB7</t>
   </si>
 </sst>
 </file>
@@ -368,13 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -400,25 +448,80 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
